--- a/FISID_Übungen/Online_Shop.Projekt.xlsx
+++ b/FISID_Übungen/Online_Shop.Projekt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISID_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4984A6C5-58D0-4097-9CF2-0287A5799612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8DAD24-0A43-4D81-A5F7-026377464377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="91">
   <si>
     <t>Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>2. Weihnachtsfeiertag</t>
+  </si>
+  <si>
+    <t>Vorbereitungen abgeschlossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Präsentation </t>
+  </si>
+  <si>
+    <t>Release</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -776,6 +785,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +801,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,6 +998,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1007,42 +1055,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gantt-Balken" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1050,7 +1078,53 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Wochenende" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -1584,6 +1658,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Raute 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1683E166-376D-D28D-FF85-2EC19B3A21FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8205108" y="1707696"/>
+          <a:ext cx="115661" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>197305</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Raute 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DFE75D0-907B-41C8-B3E8-DC12B4C21D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11307537" y="2830286"/>
+          <a:ext cx="115661" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>183697</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Raute 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8939787D-D0F1-4F68-A77A-D136D4A16ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13198929" y="3326946"/>
+          <a:ext cx="115661" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1893,20 +2152,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="80"/>
+      <c r="I1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="90"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1946,20 +2205,20 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="86"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="42" t="s">
@@ -1989,18 +2248,18 @@
       <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="I8" s="89" t="s">
+      <c r="G8" s="85"/>
+      <c r="I8" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="L8" s="91" t="s">
+      <c r="J8" s="81"/>
+      <c r="L8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="44" t="s">
@@ -2028,18 +2287,18 @@
       <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="I11" s="89" t="s">
+      <c r="G11" s="85"/>
+      <c r="I11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="L11" s="91" t="s">
+      <c r="J11" s="81"/>
+      <c r="L11" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="92"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="44" t="s">
@@ -2067,18 +2326,18 @@
       <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="I14" s="89" t="s">
+      <c r="G14" s="85"/>
+      <c r="I14" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="L14" s="91" t="s">
+      <c r="J14" s="81"/>
+      <c r="L14" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="44" t="s">
@@ -2105,14 +2364,14 @@
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="I17" s="89" t="s">
+      <c r="G17" s="85"/>
+      <c r="I17" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="90"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="44" t="s">
@@ -2132,10 +2391,10 @@
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="48" t="s">
@@ -2149,10 +2408,10 @@
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="90"/>
+      <c r="J23" s="81"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="48" t="s">
@@ -2166,11 +2425,11 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="I25" s="36"/>
@@ -2179,27 +2438,27 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="90"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="I27" s="48" t="s">
@@ -2213,11 +2472,11 @@
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="I28" s="36"/>
@@ -2226,27 +2485,27 @@
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="I29" s="89" t="s">
+      <c r="I29" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="90"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="I30" s="48" t="s">
@@ -2260,11 +2519,11 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="I31" s="36"/>
@@ -2273,27 +2532,27 @@
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="90"/>
+      <c r="J32" s="81"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="I33" s="48" t="s">
@@ -2307,11 +2566,11 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -2319,11 +2578,11 @@
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -2331,11 +2590,11 @@
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2343,11 +2602,11 @@
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -2355,11 +2614,11 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
@@ -2367,11 +2626,11 @@
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -2379,11 +2638,11 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
@@ -2391,16 +2650,47 @@
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
@@ -2408,37 +2698,6 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2453,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="H1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2471,11 +2730,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2499,11 +2758,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -2624,11 +2883,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2733,11 +2992,11 @@
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -2895,11 +3154,11 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3028,11 +3287,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -3063,11 +3322,11 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3097,11 +3356,11 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3149,11 +3408,11 @@
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
@@ -3196,11 +3455,11 @@
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
@@ -3254,11 +3513,11 @@
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -3305,11 +3564,11 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="23" t="s">
         <v>28</v>
       </c>
@@ -3342,11 +3601,11 @@
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
@@ -3375,11 +3634,11 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
@@ -3435,11 +3694,11 @@
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -3522,11 +3781,11 @@
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3588,11 +3847,11 @@
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
@@ -3698,26 +3957,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BJ3:BL3"/>
@@ -3728,94 +3972,109 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA4">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP4">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3831,11 +4090,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <pane xSplit="11" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -3853,11 +4112,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -4047,11 +4306,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -4074,10 +4333,14 @@
       </c>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K8" si="0">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
+        <v>1</v>
+      </c>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
@@ -4135,11 +4398,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -4164,11 +4427,13 @@
       </c>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
@@ -4225,11 +4490,11 @@
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -4254,17 +4519,25 @@
       </c>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="21"/>
+      <c r="R4" s="10">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
@@ -4315,11 +4588,11 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4344,16 +4617,22 @@
       </c>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
@@ -4405,11 +4684,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -4434,7 +4713,7 @@
       </c>
       <c r="K6" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -4444,13 +4723,23 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
       <c r="W6" s="21"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="21"/>
+      <c r="Y6" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>1</v>
+      </c>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
@@ -4495,11 +4784,11 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4524,11 +4813,13 @@
       </c>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -4585,11 +4876,11 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -4614,17 +4905,25 @@
       </c>
       <c r="K8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="21"/>
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="21">
+        <v>1</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="10"/>
@@ -4672,40 +4971,19 @@
       <c r="BM8" s="10"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="21">
-        <f>Netzplan!G9</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="21" t="str">
-        <f>Netzplan!H9</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <f>Netzplan!I9</f>
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="30">
-        <f>Netzplan!J9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="31">
-        <f t="shared" ref="K9:K17" si="1">SUM(L9:BM9)</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -4714,9 +4992,9 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
@@ -4724,10 +5002,10 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="21"/>
+      <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="21"/>
+      <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -4763,38 +5041,38 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="G10" s="21">
-        <f>Netzplan!G10</f>
+        <f>Netzplan!G9</f>
         <v>2</v>
       </c>
       <c r="H10" s="21" t="str">
-        <f>Netzplan!H10</f>
+        <f>Netzplan!H9</f>
         <v>1</v>
       </c>
       <c r="I10" s="22">
-        <f>Netzplan!I10</f>
+        <f>Netzplan!I9</f>
         <v>1.5</v>
       </c>
       <c r="J10" s="30">
-        <f>Netzplan!J10</f>
+        <f>Netzplan!J9</f>
         <v>1</v>
       </c>
       <c r="K10" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="K10:K20" si="1">SUM(L10:BM10)</f>
+        <v>1</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -4814,12 +5092,14 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
+      <c r="AD10" s="21"/>
       <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
+      <c r="AF10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
@@ -4853,38 +5133,38 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" s="21">
-        <f>Netzplan!G11</f>
+        <f>Netzplan!G10</f>
         <v>2</v>
       </c>
       <c r="H11" s="21" t="str">
-        <f>Netzplan!H11</f>
+        <f>Netzplan!H10</f>
         <v>1</v>
       </c>
       <c r="I11" s="22">
-        <f>Netzplan!I11</f>
+        <f>Netzplan!I10</f>
         <v>1.5</v>
       </c>
       <c r="J11" s="30">
-        <f>Netzplan!J11</f>
+        <f>Netzplan!J10</f>
         <v>1</v>
       </c>
       <c r="K11" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -4908,9 +5188,12 @@
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
+      <c r="AH11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
@@ -4942,38 +5225,38 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G12" s="21">
-        <f>Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H12" s="21">
-        <f>Netzplan!H12</f>
+        <f>Netzplan!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H12" s="21" t="str">
+        <f>Netzplan!H11</f>
         <v>1</v>
       </c>
       <c r="I12" s="22">
-        <f>Netzplan!I12</f>
-        <v>0.5</v>
+        <f>Netzplan!I11</f>
+        <v>1.5</v>
       </c>
       <c r="J12" s="30">
-        <f>Netzplan!J12</f>
-        <v>20</v>
+        <f>Netzplan!J11</f>
+        <v>1</v>
       </c>
       <c r="K12" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -4986,34 +5269,36 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="21"/>
+      <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="21"/>
       <c r="AK12" s="21"/>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
       <c r="AY12" s="75"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
@@ -5024,6 +5309,7 @@
       <c r="BF12" s="75"/>
       <c r="BG12" s="10"/>
       <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
       <c r="BK12" s="10"/>
       <c r="BL12" s="75"/>
@@ -5031,38 +5317,38 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="21">
+        <f>Netzplan!G12</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="21">
+        <f>Netzplan!H12</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="22">
+        <f>Netzplan!I12</f>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="30">
+        <f>Netzplan!J12</f>
         <v>20</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="21">
-        <f>Netzplan!G13</f>
-        <v>3</v>
-      </c>
-      <c r="H13" s="21" t="str">
-        <f>Netzplan!H13</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="22">
-        <f>Netzplan!I13</f>
-        <v>1.5</v>
-      </c>
-      <c r="J13" s="30">
-        <f>Netzplan!J13</f>
-        <v>2</v>
       </c>
       <c r="K13" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -5073,35 +5359,76 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="U13" s="10">
+        <v>1</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1</v>
+      </c>
+      <c r="W13" s="21"/>
       <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
+      <c r="Y13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="21"/>
       <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="AF13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="21"/>
       <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
+      <c r="AM13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="21"/>
       <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
+      <c r="AT13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="21"/>
       <c r="AY13" s="75"/>
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
@@ -5112,7 +5439,6 @@
       <c r="BF13" s="75"/>
       <c r="BG13" s="10"/>
       <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
       <c r="BK13" s="10"/>
       <c r="BL13" s="75"/>
@@ -5120,38 +5446,38 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="21">
-        <f>Netzplan!G14</f>
+        <f>Netzplan!G13</f>
         <v>3</v>
       </c>
       <c r="H14" s="21" t="str">
-        <f>Netzplan!H14</f>
+        <f>Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I14" s="22">
-        <f>Netzplan!I14</f>
+        <f>Netzplan!I13</f>
         <v>1.5</v>
       </c>
       <c r="J14" s="30">
-        <f>Netzplan!J14</f>
+        <f>Netzplan!J13</f>
         <v>2</v>
       </c>
       <c r="K14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -5177,17 +5503,21 @@
       <c r="AG14" s="10"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
+      <c r="AJ14" s="10">
+        <v>1</v>
+      </c>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
+      <c r="AM14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
-      <c r="AU14" s="21"/>
+      <c r="AU14" s="10"/>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
       <c r="AX14" s="10"/>
@@ -5209,38 +5539,38 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="21">
-        <f>Netzplan!G15</f>
-        <v>1</v>
+        <f>Netzplan!G14</f>
+        <v>3</v>
       </c>
       <c r="H15" s="21" t="str">
-        <f>Netzplan!H15</f>
+        <f>Netzplan!H14</f>
         <v>1</v>
       </c>
       <c r="I15" s="22">
-        <f>Netzplan!I15</f>
+        <f>Netzplan!I14</f>
         <v>1.5</v>
       </c>
       <c r="J15" s="30">
-        <f>Netzplan!J15</f>
-        <v>1</v>
+        <f>Netzplan!J14</f>
+        <v>2</v>
       </c>
       <c r="K15" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -5270,15 +5600,18 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
       <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
+      <c r="AN15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
       <c r="AX15" s="10"/>
       <c r="AY15" s="75"/>
@@ -5298,40 +5631,19 @@
       <c r="BM15" s="10"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="21">
-        <f>Netzplan!G16</f>
-        <v>5</v>
-      </c>
-      <c r="H16" s="21" t="str">
-        <f>Netzplan!H16</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
-        <f>Netzplan!I16</f>
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="30">
-        <f>Netzplan!J16</f>
-        <v>3</v>
-      </c>
-      <c r="K16" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
@@ -5359,22 +5671,21 @@
       <c r="AJ16" s="10"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
+      <c r="AM16" s="102"/>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
+      <c r="AU16" s="21"/>
       <c r="AV16" s="10"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
       <c r="AY16" s="75"/>
       <c r="AZ16" s="10"/>
       <c r="BA16" s="10"/>
-      <c r="BB16" s="21"/>
+      <c r="BB16" s="10"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
       <c r="BE16" s="10"/>
@@ -5382,131 +5693,399 @@
       <c r="BG16" s="10"/>
       <c r="BH16" s="10"/>
       <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
       <c r="BK16" s="10"/>
       <c r="BL16" s="75"/>
       <c r="BM16" s="10"/>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26">
-        <f>Netzplan!G17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="26" t="str">
-        <f>Netzplan!H17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="32">
-        <f>Netzplan!I17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="33">
-        <f>Netzplan!J17</f>
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="21">
+        <f>Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="21" t="str">
+        <f>Netzplan!H15</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="22">
+        <f>Netzplan!I15</f>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="30">
+        <f>Netzplan!J15</f>
         <v>1</v>
       </c>
       <c r="K17" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="76"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="76"/>
-      <c r="BM17" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AQ17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="75"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="75"/>
+      <c r="BM17" s="10"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="21">
+        <f>Netzplan!G16</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="21" t="str">
+        <f>Netzplan!H16</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="22">
+        <f>Netzplan!I16</f>
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="30">
+        <f>Netzplan!J16</f>
+        <v>3</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="10"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="75"/>
+      <c r="BM19" s="10"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26">
+        <f>Netzplan!G17</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="26" t="str">
+        <f>Netzplan!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="32">
+        <f>Netzplan!I17</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
+        <f>Netzplan!J17</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K17">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="K2:K20">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:BM17">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="L1:BM16 L17:AL17 AN17:AO17 AQ17:BM17 L18:BM19 L20:AW20 AY20:AZ20 BB20:BM20">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM17">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="L2:BM16 L17:AL17 AN17:AO17 AQ17:BM17 L18:BM19 L20:AW20 AY20:BM20">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ17">
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>IF(OR(WEEKDAY(AN$1)=7,WEEKDAY(AN$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA20">
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>IF(OR(WEEKDAY(AY$1)=7,WEEKDAY(AY$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5515,6 +6094,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5535,7 +6115,45 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L1:BM17</xm:sqref>
+          <xm:sqref>L1:BM16 L17:AL17 AN17:AO17 AQ17:BM17 L18:BM19 L20:AW20 AY20:AZ20 BB20:BM20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AN$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AQ17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AY$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BA20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
